--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-04-15</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,13 +237,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: XDS and MHD Mapping</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: XDS and MHD Mapping</t>
   </si>
   <si>
     <t>Collection
@@ -273,10 +273,10 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
+    <t>XDS SubmissionSet: Used in the context of the IHE MHD ImplementationGuide</t>
+  </si>
+  <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>XDS SubmissionSet</t>
   </si>
   <si>
     <t>List.id</t>
@@ -606,7 +606,7 @@
     <t>List.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>Extension</t>
@@ -638,6 +638,64 @@
 </t>
   </si>
   <si>
+    <t>List.extension:designationType.id</t>
+  </si>
+  <si>
+    <t>List.extension.id</t>
+  </si>
+  <si>
+    <t>List.extension:designationType.extension</t>
+  </si>
+  <si>
+    <t>List.extension.extension</t>
+  </si>
+  <si>
+    <t>List.extension:designationType.url</t>
+  </si>
+  <si>
+    <t>List.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-designationType</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>List.extension:designationType.value[x]</t>
+  </si>
+  <si>
+    <t>List.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/SubmissionSet.contentTypeCode</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
     <t>List.extension:sourceId</t>
   </si>
   <si>
@@ -686,6 +744,9 @@
     <t>The SubmissionSet.Author element MAY be used to track the user who made the latest changes to the document metadata.</t>
   </si>
   <si>
+    <t>Extension Author AuthorRole for SubmissionSet and DocumentEntry</t>
+  </si>
+  <si>
     <t>List.modifierExtension</t>
   </si>
   <si>
@@ -709,13 +770,13 @@
 </t>
   </si>
   <si>
+    <t>SubmissionSet.entryUUID and SubmissionSet.uniqueId</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>SubmissionSet.entryUUID and SubmissionSet.uniqueId</t>
   </si>
   <si>
     <t>List.identifier:uniqueId</t>
@@ -762,24 +823,21 @@
     <t>current</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The current state of the list.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/list-status|4.0.1</t>
   </si>
   <si>
+    <t>SubmissionSet.availabilityStatus</t>
+  </si>
+  <si>
     <t>.status[current=active;retired=obsolete;entered-in-error=nullified]</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>SubmissionSet.availabilityStatus</t>
-  </si>
-  <si>
     <t>List.mode</t>
   </si>
   <si>
@@ -804,15 +862,15 @@
     <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
+    <t>shall be 'working'</t>
+  </si>
+  <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>shall be 'working'</t>
-  </si>
-  <si>
     <t>List.title</t>
   </si>
   <si>
@@ -828,17 +886,13 @@
     <t>Dr. Jane's Patients</t>
   </si>
   <si>
+    <t>SubmissionSet.title</t>
+  </si>
+  <si>
     <t>.title</t>
   </si>
   <si>
-    <t>SubmissionSet.title</t>
-  </si>
-  <si>
     <t>List.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>What the purpose of this list is</t>
@@ -864,13 +918,13 @@
     <t>https://profiles.ihe.net/ITI/MHD/ValueSet/MHDlistTypesVS</t>
   </si>
   <si>
+    <t>shall be 'submissionset'</t>
+  </si>
+  <si>
     <t>.code</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>shall be 'submissionset'</t>
   </si>
   <si>
     <t>List.subject</t>
@@ -892,13 +946,13 @@
     <t>The primary purpose of listing the subject explicitly is to help with finding the right list.</t>
   </si>
   <si>
+    <t>SubmissionSet.patientId</t>
+  </si>
+  <si>
     <t>.participation[typeCode&lt;SUB].role (and sometimes .player)</t>
   </si>
   <si>
     <t>FiveWs.subject</t>
-  </si>
-  <si>
-    <t>SubmissionSet.patientId</t>
   </si>
   <si>
     <t>List.encounter</t>
@@ -939,13 +993,13 @@
     <t>Identifies how current the list is which affects relevance.</t>
   </si>
   <si>
+    <t>SubmissionSet.submissionTime</t>
+  </si>
+  <si>
     <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>SubmissionSet.submissionTime</t>
   </si>
   <si>
     <t>List.source</t>
@@ -971,13 +1025,13 @@
     <t>Allows follow-up as well as context.</t>
   </si>
   <si>
+    <t>SubmissionSet.author</t>
+  </si>
+  <si>
     <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
   </si>
   <si>
     <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>SubmissionSet.author</t>
   </si>
   <si>
     <t>List.source.id</t>
@@ -1116,10 +1170,10 @@
     <t>Comments that apply to the overall list.</t>
   </si>
   <si>
+    <t>SubmissionSet.comments</t>
+  </si>
+  <si>
     <t>.inboundRelationship[typeCode=SUBJ].act.text</t>
-  </si>
-  <si>
-    <t>SubmissionSet.comments</t>
   </si>
   <si>
     <t>List.entry</t>
@@ -1249,10 +1303,10 @@
     <t>A reference to the actual resource from which data was derived.</t>
   </si>
   <si>
+    <t>references to DocumentReference(s) and Folder List(s)</t>
+  </si>
+  <si>
     <t>.target or .role or .role.entity</t>
-  </si>
-  <si>
-    <t>references to DocumentReference(s) and Folder List(s)</t>
   </si>
   <si>
     <t>List.emptyReason</t>
@@ -1598,7 +1652,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1607,7 +1661,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.15625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="26.87890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1632,7 +1686,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.32421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1642,9 +1696,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="185.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.59765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.1953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="185.94140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1869,10 +1923,10 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2195,10 +2249,10 @@
         <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>79</v>
@@ -2306,10 +2360,10 @@
         <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>79</v>
@@ -2750,13 +2804,13 @@
         <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -3305,10 +3359,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>79</v>
@@ -3416,10 +3470,10 @@
         <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>79</v>
@@ -3648,23 +3702,21 @@
         <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s" s="2">
         <v>200</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -3673,13 +3725,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3730,25 +3782,25 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -3756,14 +3808,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
@@ -3772,7 +3822,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -3784,13 +3834,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3829,19 +3879,19 @@
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3862,31 +3912,29 @@
         <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -3895,22 +3943,24 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
@@ -3952,25 +4002,25 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -3978,10 +4028,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3989,28 +4039,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4037,13 +4087,11 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4061,25 +4109,25 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4087,21 +4135,23 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>88</v>
@@ -4113,13 +4163,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4158,17 +4208,19 @@
         <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4180,27 +4232,27 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
@@ -4210,7 +4262,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4222,13 +4274,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4279,7 +4331,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4288,13 +4340,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>79</v>
@@ -4305,13 +4357,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4321,10 +4373,10 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -4333,13 +4385,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4390,7 +4442,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4399,13 +4451,13 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>79</v>
@@ -4416,10 +4468,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4427,32 +4479,30 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4462,7 +4512,7 @@
         <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>79</v>
@@ -4477,13 +4527,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4501,36 +4551,36 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4538,35 +4588,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4575,7 +4621,7 @@
         <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>79</v>
@@ -4590,37 +4636,35 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
@@ -4629,23 +4673,25 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4663,21 +4709,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -4689,7 +4733,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -4725,72 +4769,70 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -4799,7 +4841,7 @@
         <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>79</v>
@@ -4814,11 +4856,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Y29" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -4836,36 +4880,36 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4882,26 +4926,24 @@
         <v>88</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
@@ -4910,7 +4952,7 @@
         <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>257</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>79</v>
@@ -4925,13 +4967,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -4949,10 +4991,10 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>87</v>
@@ -4964,21 +5006,21 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4986,31 +5028,35 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5019,7 +5065,7 @@
         <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>79</v>
@@ -5034,13 +5080,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5058,10 +5104,10 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>87</v>
@@ -5073,21 +5119,21 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>105</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5095,13 +5141,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
@@ -5110,19 +5156,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>101</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5135,7 +5179,7 @@
         <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>79</v>
@@ -5171,7 +5215,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5186,29 +5230,29 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>298</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
@@ -5223,19 +5267,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>212</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -5245,7 +5289,7 @@
         <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>79</v>
@@ -5260,13 +5304,11 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5284,7 +5326,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5299,21 +5341,21 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5321,31 +5363,35 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -5393,7 +5439,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5405,35 +5451,35 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -5445,17 +5491,15 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5492,82 +5536,84 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -5615,40 +5661,40 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>115</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5658,7 +5704,7 @@
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -5667,18 +5713,20 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>317</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -5726,7 +5774,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5735,27 +5783,27 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>187</v>
+        <v>322</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5775,20 +5823,18 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -5813,13 +5859,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -5837,7 +5883,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>326</v>
+        <v>104</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5849,13 +5895,13 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -5863,21 +5909,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -5886,19 +5932,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>109</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>329</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>111</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5936,37 +5982,37 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>331</v>
+        <v>115</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -5974,12 +6020,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>79</v>
       </c>
@@ -5988,7 +6036,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -5997,20 +6045,18 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>101</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6059,22 +6105,22 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>79</v>
@@ -6085,10 +6131,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6099,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6108,23 +6154,21 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6148,13 +6192,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6172,7 +6216,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6181,27 +6225,27 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6221,18 +6265,20 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>347</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6257,13 +6303,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>342</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6281,13 +6327,13 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
@@ -6296,21 +6342,21 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6318,31 +6364,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6392,25 +6438,25 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6418,10 +6464,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6441,18 +6487,20 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>102</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6501,7 +6549,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>104</v>
+        <v>355</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6513,13 +6561,13 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6527,21 +6575,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6553,18 +6601,20 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>110</v>
+        <v>358</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -6588,13 +6638,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -6612,25 +6662,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -6638,46 +6688,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -6725,7 +6771,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6737,13 +6783,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>187</v>
+        <v>368</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -6751,10 +6797,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6762,13 +6808,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
@@ -6777,20 +6823,18 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -6814,13 +6858,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -6838,36 +6882,36 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6878,38 +6922,32 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>102</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q48" t="s" s="2">
-        <v>380</v>
-      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>79</v>
       </c>
@@ -6953,7 +6991,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>104</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6962,38 +7000,38 @@
         <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>381</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7005,18 +7043,18 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>384</v>
+        <v>109</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7064,68 +7102,72 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>115</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>108</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7173,36 +7215,36 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7225,19 +7267,19 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7262,13 +7304,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -7286,7 +7328,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7295,23 +7337,471 @@
         <v>87</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="B53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>105</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM51">
+  <autoFilter ref="A1:AM55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7321,7 +7811,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot-2</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-19T17:31:05+00:00</t>
+    <t>2024-12-18T12:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>FHIR Version</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
@@ -1602,47 +1599,47 @@
         <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1703,6101 +1700,6101 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="I1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="J1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="K1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="K1" t="s" s="1">
+      <c r="L1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="M1" t="s" s="1">
         <v>48</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="N1" t="s" s="1">
         <v>49</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="O1" t="s" s="1">
         <v>50</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>51</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>52</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>53</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>54</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>55</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>56</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>57</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>58</v>
       </c>
-      <c r="W1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>59</v>
       </c>
-      <c r="X1" t="s" s="1">
+      <c r="Y1" t="s" s="1">
         <v>60</v>
       </c>
-      <c r="Y1" t="s" s="1">
+      <c r="Z1" t="s" s="1">
         <v>61</v>
       </c>
-      <c r="Z1" t="s" s="1">
+      <c r="AA1" t="s" s="1">
         <v>62</v>
       </c>
-      <c r="AA1" t="s" s="1">
+      <c r="AB1" t="s" s="1">
         <v>63</v>
       </c>
-      <c r="AB1" t="s" s="1">
+      <c r="AC1" t="s" s="1">
         <v>64</v>
       </c>
-      <c r="AC1" t="s" s="1">
+      <c r="AD1" t="s" s="1">
         <v>65</v>
       </c>
-      <c r="AD1" t="s" s="1">
+      <c r="AE1" t="s" s="1">
         <v>66</v>
       </c>
-      <c r="AE1" t="s" s="1">
+      <c r="AF1" t="s" s="1">
         <v>67</v>
       </c>
-      <c r="AF1" t="s" s="1">
+      <c r="AG1" t="s" s="1">
         <v>68</v>
       </c>
-      <c r="AG1" t="s" s="1">
+      <c r="AH1" t="s" s="1">
         <v>69</v>
       </c>
-      <c r="AH1" t="s" s="1">
+      <c r="AI1" t="s" s="1">
         <v>70</v>
       </c>
-      <c r="AI1" t="s" s="1">
+      <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
-      <c r="AJ1" t="s" s="1">
+      <c r="AK1" t="s" s="1">
         <v>72</v>
       </c>
-      <c r="AK1" t="s" s="1">
+      <c r="AL1" t="s" s="1">
         <v>73</v>
       </c>
-      <c r="AL1" t="s" s="1">
+      <c r="AM1" t="s" s="1">
         <v>74</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="I2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AG4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
-      </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AG5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF6" t="s" s="2">
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K7" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="L7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Z11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>149</v>
-      </c>
       <c r="AG11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AA12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="AG12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>179</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC20" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>217</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="D24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H27" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="B28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>245</v>
-      </c>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI28" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI29" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Z30" t="s" s="2">
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="O31" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="U32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>280</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="I33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>285</v>
-      </c>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="I34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>299</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="I36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K36" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AC39" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="AC39" t="s" s="2">
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
+      <c r="AF39" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AF39" t="s" s="2">
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="K44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>360</v>
-      </c>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>363</v>
-      </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH46" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI47" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="AM47" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="P50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="O51" t="s" s="2">
-        <v>389</v>
-      </c>
       <c r="P51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="O52" t="s" s="2">
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q52" t="s" s="2">
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="R52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI52" t="s" s="2">
+      <c r="AJ52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H54" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AL54" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AM54" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="O55" t="s" s="2">
-        <v>416</v>
-      </c>
       <c r="P55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>419</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$61</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="428">
   <si>
     <t>Property</t>
   </si>
@@ -33,67 +33,73 @@
     <t>Version</t>
   </si>
   <si>
+    <t>5.0.0-ballot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CHMhdSubmissionSetComprehensive</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>CH MHD SubmissionSet Comprehensive</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-05-22T13:39:01+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>eHealth Suisse</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
+  </si>
+  <si>
+    <t>eHealth Suisse (https://www.e-health-suisse.ch(Work))</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>CC0-1.0</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>CHMhdSubmissionSetComprehensive</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>CH MHD SubmissionSet Comprehensive</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2024-12-18T12:16:22+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>eHealth Suisse</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>eHealth Suisse (https://www.e-health-suisse.ch)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>CC0-1.0</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
   </si>
   <si>
     <t>Kind</t>
@@ -741,7 +747,7 @@
     <t>The SubmissionSet.Author element MAY be used to track the user who made the latest changes to the document metadata.</t>
   </si>
   <si>
-    <t>Extension Author AuthorRole for SubmissionSet and DocumentEntry</t>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>List.modifierExtension</t>
@@ -757,7 +763,7 @@
 </t>
   </si>
   <si>
-    <t>identifier, for uniqueID set use to ususal</t>
+    <t>identifier, for uniqueID set use to usual</t>
   </si>
   <si>
     <t>Identifier for the List assigned for business purposes outside the context of FHIR.</t>
@@ -927,7 +933,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient) &lt;&lt;referenced&gt;&gt;
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -937,7 +943,7 @@
     <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
   </si>
   <si>
-    <t>Not a contained resource. URL Points to an existing Patient Resource representing the XDS Affinity Domain Patient.</t>
+    <t>Not a contained resource. The identifier points to an existing patient in the XDS Affinity Domain.</t>
   </si>
   <si>
     <t>The primary purpose of listing the subject explicitly is to help with finding the right list.</t>
@@ -952,108 +958,13 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>List.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Context in which list created</t>
-  </si>
-  <si>
-    <t>The encounter that is the context in which this list was created.</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>List.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the list was prepared</t>
-  </si>
-  <si>
-    <t>The date that the list was prepared.</t>
-  </si>
-  <si>
-    <t>The actual important date is the date of currency of the resources that were summarized, but it is usually assumed that these are current when the preparation occurs.</t>
-  </si>
-  <si>
-    <t>Identifies how current the list is which affects relevance.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.submissionTime</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>List.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|Device)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what defined the list contents (aka Author)</t>
-  </si>
-  <si>
-    <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
-  </si>
-  <si>
-    <t>The primary source is the entity that made the decisions what items are in the list. This may be software or user.</t>
-  </si>
-  <si>
-    <t>Allows follow-up as well as context.</t>
-  </si>
-  <si>
-    <t>SubmissionSet.author</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>List.source.id</t>
-  </si>
-  <si>
-    <t>List.source.extension</t>
-  </si>
-  <si>
-    <t>List.source.extension:authorOrg</t>
-  </si>
-  <si>
-    <t>authorOrg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-authorOrg}
-</t>
-  </si>
-  <si>
-    <t>Author organization of the SubmissionSet</t>
-  </si>
-  <si>
-    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
-  </si>
-  <si>
-    <t>List.source.reference</t>
+    <t>List.subject.id</t>
+  </si>
+  <si>
+    <t>List.subject.extension</t>
+  </si>
+  <si>
+    <t>List.subject.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1072,7 +983,7 @@
 </t>
   </si>
   <si>
-    <t>List.source.type</t>
+    <t>List.subject.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1094,7 +1005,11 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>List.source.identifier</t>
+    <t>List.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-epr-spid-identifier}
+</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1115,19 +1030,132 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>List.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>List.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Context in which list created</t>
+  </si>
+  <si>
+    <t>The encounter that is the context in which this list was created.</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>List.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the list was prepared</t>
+  </si>
+  <si>
+    <t>The date that the list was prepared.</t>
+  </si>
+  <si>
+    <t>The actual important date is the date of currency of the resources that were summarized, but it is usually assumed that these are current when the preparation occurs.</t>
+  </si>
+  <si>
+    <t>Identifies how current the list is which affects relevance.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.submissionTime</t>
+  </si>
+  <si>
+    <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>List.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|Device)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what defined the list contents (aka Author)</t>
+  </si>
+  <si>
+    <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
+  </si>
+  <si>
+    <t>The primary source is the entity that made the decisions what items are in the list. This may be software or user.</t>
+  </si>
+  <si>
+    <t>Allows follow-up as well as context.</t>
+  </si>
+  <si>
+    <t>SubmissionSet.author</t>
+  </si>
+  <si>
+    <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>List.source.id</t>
+  </si>
+  <si>
+    <t>List.source.extension</t>
+  </si>
+  <si>
+    <t>List.source.extension:authorOrg</t>
+  </si>
+  <si>
+    <t>authorOrg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://profiles.ihe.net/ITI/MHD/StructureDefinition/ihe-authorOrg}
+</t>
+  </si>
+  <si>
+    <t>Author organization of the SubmissionSet</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
+  </si>
+  <si>
+    <t>List.source.reference</t>
+  </si>
+  <si>
+    <t>List.source.type</t>
+  </si>
+  <si>
+    <t>List.source.identifier</t>
+  </si>
+  <si>
     <t>List.source.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>List.orderedBy</t>
@@ -1476,7 +1504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1566,40 +1594,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1640,6 +1668,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>35</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1685,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1658,17 +1694,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.18359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.59375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.2421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="120.25390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.09375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1677,6128 +1713,6792 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.79296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.32421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.4296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="73.1953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="185.94140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="62.75390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="159.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>299</v>
+        <v>105</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>106</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>308</v>
+        <v>111</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>322</v>
+        <v>188</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>328</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>114</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>100</v>
+        <v>329</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>186</v>
+        <v>332</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="N42" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>103</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>354</v>
+        <v>105</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>110</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>111</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
+        <v>305</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>375</v>
+        <v>188</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>101</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
+        <v>325</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>271</v>
+        <v>371</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>306</v>
+        <v>379</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>78</v>
+        <v>383</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>103</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>104</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>410</v>
+        <v>106</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>110</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>111</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="Z55" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AA55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AL55" t="s" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>78</v>
+      <c r="AL60" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM55">
+  <autoFilter ref="A1:AM61">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7808,7 +8508,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI60">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-ch-mhd-submissionset-comprehensive.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,7 @@
     <t>List.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -481,7 +481,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -505,7 +505,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -548,7 +548,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -684,7 +684,7 @@
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
+    <t>Fixed code 'Procedure' by the Swiss EPR</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -747,9 +747,6 @@
     <t>The SubmissionSet.Author element MAY be used to track the user who made the latest changes to the document metadata.</t>
   </si>
   <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
     <t>List.modifierExtension</t>
   </si>
   <si>
@@ -792,13 +789,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
+    <t>Business identifier</t>
   </si>
   <si>
     <t>List.identifier:entryUUID</t>
@@ -999,7 +990,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1048,7 +1039,7 @@
     <t>List.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1099,7 +1090,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1146,6 +1137,9 @@
     <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
+    <t>SubmissionSet.author when the author is an Organization</t>
+  </si>
+  <si>
     <t>List.source.reference</t>
   </si>
   <si>
@@ -1176,7 +1170,7 @@
     <t>What order applies to the items in a list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -1268,7 +1262,7 @@
     <t>Codes that provide further information about the reason and meaning of the item in the list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-item-flag</t>
+    <t>http://hl7.org/fhir/ValueSet/list-item-flag|4.0.1</t>
   </si>
   <si>
     <t>List.entry.deleted</t>
@@ -1352,7 +1346,7 @@
     <t>If a list is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -3619,7 +3613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>194</v>
       </c>
@@ -4166,7 +4160,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>219</v>
       </c>
@@ -4388,7 +4382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>230</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4493,7 +4487,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -4501,10 +4495,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4584,7 +4578,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4610,10 +4604,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4636,13 +4630,13 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4681,7 +4675,7 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
@@ -4691,7 +4685,7 @@
         <v>115</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4706,24 +4700,24 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AM27" t="s" s="2">
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
+      <c r="B28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>80</v>
@@ -4745,13 +4739,13 @@
         <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4802,7 +4796,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4811,7 +4805,7 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>100</v>
@@ -4820,21 +4814,21 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>80</v>
@@ -4856,13 +4850,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4913,7 +4907,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4922,7 +4916,7 @@
         <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>100</v>
@@ -4931,18 +4925,18 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4968,13 +4962,13 @@
         <v>165</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4985,7 +4979,7 @@
         <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>80</v>
@@ -5003,10 +4997,10 @@
         <v>216</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5024,7 +5018,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>88</v>
@@ -5039,21 +5033,21 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5079,16 +5073,16 @@
         <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5098,7 +5092,7 @@
         <v>80</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>80</v>
@@ -5116,10 +5110,10 @@
         <v>216</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>80</v>
@@ -5137,7 +5131,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>88</v>
@@ -5152,21 +5146,21 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5192,14 +5186,14 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5212,7 +5206,7 @@
         <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>80</v>
@@ -5248,7 +5242,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5263,21 +5257,21 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5303,16 +5297,16 @@
         <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5322,7 +5316,7 @@
         <v>80</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>80</v>
@@ -5341,7 +5335,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5359,7 +5353,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5374,21 +5368,21 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5411,19 +5405,19 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5472,7 +5466,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5487,21 +5481,21 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5607,10 +5601,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5718,10 +5712,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5747,13 +5741,13 @@
         <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5803,7 +5797,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5812,7 +5806,7 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
@@ -5829,10 +5823,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5858,13 +5852,13 @@
         <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5893,10 +5887,10 @@
         <v>147</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -5914,7 +5908,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -5940,10 +5934,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5966,16 +5960,16 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6025,7 +6019,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6043,7 +6037,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6051,10 +6045,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6080,13 +6074,13 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6136,7 +6130,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6162,10 +6156,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6188,13 +6182,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6245,7 +6239,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6263,18 +6257,18 @@
         <v>106</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6297,19 +6291,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6358,7 +6352,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6373,25 +6367,25 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AL42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6410,19 +6404,19 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -6471,7 +6465,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6486,21 +6480,21 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6606,10 +6600,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6717,13 +6711,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
@@ -6733,7 +6727,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -6745,13 +6739,13 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6817,7 +6811,7 @@
         <v>117</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -6828,10 +6822,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6857,13 +6851,13 @@
         <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6913,7 +6907,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6922,7 +6916,7 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>100</v>
@@ -6939,10 +6933,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6968,13 +6962,13 @@
         <v>130</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7003,10 +6997,10 @@
         <v>147</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7024,7 +7018,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7050,10 +7044,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7076,16 +7070,16 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7135,7 +7129,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7153,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
@@ -7161,10 +7155,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7190,13 +7184,13 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7246,7 +7240,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7272,10 +7266,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7301,16 +7295,16 @@
         <v>213</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7338,10 +7332,10 @@
         <v>169</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -7359,7 +7353,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7377,7 +7371,7 @@
         <v>106</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7385,10 +7379,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7411,13 +7405,13 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7468,7 +7462,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7483,21 +7477,21 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="B53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7520,16 +7514,16 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7579,7 +7573,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7588,7 +7582,7 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>100</v>
@@ -7597,7 +7591,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7605,10 +7599,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7714,10 +7708,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7825,14 +7819,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7854,16 +7848,16 @@
         <v>109</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -7912,7 +7906,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -7938,10 +7932,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7967,16 +7961,16 @@
         <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N57" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8004,10 +7998,10 @@
         <v>155</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8025,7 +8019,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8043,7 +8037,7 @@
         <v>106</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8051,10 +8045,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8077,79 +8071,79 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="O58" t="s" s="2">
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>100</v>
@@ -8158,7 +8152,7 @@
         <v>106</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8166,10 +8160,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8192,17 +8186,17 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -8251,7 +8245,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8269,18 +8263,18 @@
         <v>106</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8303,13 +8297,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8360,7 +8354,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8375,10 +8369,10 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
@@ -8386,10 +8380,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8415,16 +8409,16 @@
         <v>213</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8452,10 +8446,10 @@
         <v>169</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8473,7 +8467,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8482,7 +8476,7 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>100</v>
@@ -8491,7 +8485,7 @@
         <v>106</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
@@ -8499,12 +8493,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AM61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
